--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00106a699585f5dc/Documents/python_projects/send_payroll_over_email/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D3735B4C-3441-473E-8046-BBCFA8BEFC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F91131CC-129D-48AA-A4D2-2C1D329BF40F}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_FE466B54808561CBC2AD86944A372A9ACB29FD1C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDED318B-5BFA-4EA7-AAE5-E016F4259B28}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="996" windowWidth="21600" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7230" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>hoangdh@coasia.com</t>
   </si>
@@ -60,17 +54,150 @@
     <t>Tran Van Doan</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>salary</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Employee’s working days</t>
+  </si>
+  <si>
+    <t>Contract days</t>
+  </si>
+  <si>
+    <t>Probation days</t>
+  </si>
+  <si>
+    <t>Basic salary</t>
+  </si>
+  <si>
+    <t>Probation salary</t>
+  </si>
+  <si>
+    <t>Auto working days in month</t>
+  </si>
+  <si>
+    <t>Annual leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special leave  </t>
+  </si>
+  <si>
+    <t>Unpaid leave</t>
+  </si>
+  <si>
+    <t>Actual contract salary</t>
+  </si>
+  <si>
+    <t>Actual probation salary</t>
+  </si>
+  <si>
+    <t>Total OT (h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total OT Amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch allowance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relocation package support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referral bonus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other additional </t>
+  </si>
+  <si>
+    <t>Social insurance (8%)</t>
+  </si>
+  <si>
+    <t>Health insurance (1.5%)</t>
+  </si>
+  <si>
+    <t>Unemployment insurance (1%)</t>
+  </si>
+  <si>
+    <t>Late time (h)</t>
+  </si>
+  <si>
+    <t>Late time amount</t>
+  </si>
+  <si>
+    <t>Early time (h)</t>
+  </si>
+  <si>
+    <t>Early time  amount</t>
+  </si>
+  <si>
+    <t>Dependents</t>
+  </si>
+  <si>
+    <t>Taxable amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal income tax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other deduction </t>
+  </si>
+  <si>
+    <t>Net salary</t>
+  </si>
+  <si>
+    <t>Maternity leave</t>
+  </si>
+  <si>
+    <t>Sick leave</t>
+  </si>
+  <si>
+    <t>Actual Gross Salary</t>
+  </si>
+  <si>
+    <t>Total Addition</t>
+  </si>
+  <si>
+    <t>Total SI</t>
+  </si>
+  <si>
+    <t>Total Deduction Amount</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>31/12/2020</t>
+  </si>
+  <si>
+    <t>1/12/2020</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Nguyen Song Toan</t>
+  </si>
+  <si>
+    <t>songtoan@coasia.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +213,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,17 +251,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -393,81 +581,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="11" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="24" max="25" width="9.44140625" customWidth="1"/>
+    <col min="34" max="34" width="10.88671875" customWidth="1"/>
+    <col min="37" max="37" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.44140625" style="5" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="N2" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P2" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>23</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="3">
+        <v>800000</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W2" s="3">
+        <v>200000</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>6156161</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>5423</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2445</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>423423</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>42342</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>5343</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>7537537</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>4534343423</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>111111111</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>200000000</v>
+      </c>
+      <c r="N3" s="10">
+        <v>150000000</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="P3" s="3">
+        <v>30000</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3</v>
+      </c>
+      <c r="S3" s="3">
+        <v>34</v>
+      </c>
+      <c r="T3">
+        <v>15151000</v>
+      </c>
+      <c r="U3" s="3">
+        <v>800000</v>
+      </c>
+      <c r="V3" s="3">
+        <v>20000</v>
+      </c>
+      <c r="W3" s="3">
+        <v>200000</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>6262626</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>43434</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>32423</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>4243</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>4324</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>42342</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>43432</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>423423</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>222222222</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>100000000</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>2</v>
       </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="N4" s="10">
+        <v>5000000</v>
+      </c>
+      <c r="O4" s="3">
+        <v>300000</v>
+      </c>
+      <c r="P4" s="3">
+        <v>40000</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="R4" s="3">
+        <v>4</v>
+      </c>
+      <c r="S4" s="3">
+        <v>35</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2511510</v>
+      </c>
+      <c r="U4" s="3">
+        <v>800000</v>
+      </c>
+      <c r="V4" s="3">
+        <v>30000</v>
+      </c>
+      <c r="W4" s="3">
+        <v>200000</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>6262262</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>4242</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>4242</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>4544</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>4342</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>786767</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>43243</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>4342342</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>333333333</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="N5" s="10">
+        <v>5000000</v>
+      </c>
+      <c r="O5" s="3">
+        <v>300000</v>
+      </c>
+      <c r="P5" s="3">
+        <v>40000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4</v>
+      </c>
+      <c r="S5" s="3">
+        <v>35</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2511510</v>
+      </c>
+      <c r="U5" s="3">
+        <v>800000</v>
+      </c>
+      <c r="V5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="W5" s="3">
+        <v>200000</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>6262262</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>4242</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>4242</v>
+      </c>
+      <c r="AC5" s="3">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>200000000</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>300000000</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="AD5" s="3">
         <v>3</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>4544</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>4342</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>786767</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>43243</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>4342342</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>333333333</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{21D819EA-3F0B-4CE0-ACD7-6EE107A1D994}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{15A9CEE9-2779-41A0-B092-1047A0867C77}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{5822BA5E-4ECF-4EB1-B0D3-ED8F25010D0B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C18870A4-60CF-4F2B-B09C-E31A2F1CE279}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00106a699585f5dc/Documents/python_projects/send_payroll_over_email/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_FE466B54808561CBC2AD86944A372A9ACB29FD1C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDED318B-5BFA-4EA7-AAE5-E016F4259B28}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_FE466B54808561CBC2AD86944A372A9ACB29FD1C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64CCEC93-CD40-4461-92F1-C3D88B3B40BD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7230" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,35 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>hoangdh@coasia.com</t>
   </si>
   <si>
-    <t>doan.tran@coasia.com</t>
-  </si>
-  <si>
-    <t>nthuyen@coasia.com</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
     <t>Dang Huy Hoang</t>
   </si>
   <si>
-    <t>Nguyen Thi Huyen</t>
-  </si>
-  <si>
-    <t>Tran Van Doan</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -178,15 +160,6 @@
   </si>
   <si>
     <t>1/12/2020</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>Nguyen Song Toan</t>
-  </si>
-  <si>
-    <t>songtoan@coasia.com</t>
   </si>
 </sst>
 </file>
@@ -584,7 +557,7 @@
   <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:AN5"/>
+      <selection activeCell="A3" sqref="A3:AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,132 +581,132 @@
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="O1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="W1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -844,386 +817,122 @@
         <v>111111111</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AN2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>200000000</v>
-      </c>
-      <c r="N3" s="10">
-        <v>150000000</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="P3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="3">
-        <v>34</v>
-      </c>
-      <c r="T3">
-        <v>15151000</v>
-      </c>
-      <c r="U3" s="3">
-        <v>800000</v>
-      </c>
-      <c r="V3" s="3">
-        <v>20000</v>
-      </c>
-      <c r="W3" s="3">
-        <v>200000</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>6262626</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>43434</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>32423</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>4243</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>4324</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>42342</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>43432</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>423423</v>
-      </c>
-      <c r="AL3" s="11">
-        <v>222222222</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="12"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="N4" s="10">
-        <v>5000000</v>
-      </c>
-      <c r="O4" s="3">
-        <v>300000</v>
-      </c>
-      <c r="P4" s="3">
-        <v>40000</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="R4" s="3">
-        <v>4</v>
-      </c>
-      <c r="S4" s="3">
-        <v>35</v>
-      </c>
-      <c r="T4" s="3">
-        <v>2511510</v>
-      </c>
-      <c r="U4" s="3">
-        <v>800000</v>
-      </c>
-      <c r="V4" s="3">
-        <v>30000</v>
-      </c>
-      <c r="W4" s="3">
-        <v>200000</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>6262262</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>4242</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>4242</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>4544</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG4">
-        <v>4342</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>786767</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>43243</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>4342342</v>
-      </c>
-      <c r="AL4" s="11">
-        <v>333333333</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="12"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="N5" s="10">
-        <v>5000000</v>
-      </c>
-      <c r="O5" s="3">
-        <v>300000</v>
-      </c>
-      <c r="P5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="R5" s="3">
-        <v>4</v>
-      </c>
-      <c r="S5" s="3">
-        <v>35</v>
-      </c>
-      <c r="T5" s="3">
-        <v>2511510</v>
-      </c>
-      <c r="U5" s="3">
-        <v>800000</v>
-      </c>
-      <c r="V5" s="3">
-        <v>30000</v>
-      </c>
-      <c r="W5" s="3">
-        <v>200000</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>6262262</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>4242</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>4242</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>4544</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG5">
-        <v>4342</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>786767</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>43243</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>4342342</v>
-      </c>
-      <c r="AL5" s="11">
-        <v>333333333</v>
-      </c>
-      <c r="AM5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>49</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="C5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{C18870A4-60CF-4F2B-B09C-E31A2F1CE279}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>